--- a/06 ВК/specifikaciya.xlsx
+++ b/06 ВК/specifikaciya.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t xml:space="preserve">Позиция</t>
   </si>
@@ -123,7 +123,10 @@
     <t xml:space="preserve">R585CY063</t>
   </si>
   <si>
-    <t xml:space="preserve">Фильтр деионизационный</t>
+    <t xml:space="preserve">Магистральный фильтр технического умягчения PRIO Новая Вода BU110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIO Новая Вода BU110 </t>
   </si>
   <si>
     <t xml:space="preserve">Отопление</t>
@@ -702,20 +705,19 @@
   <dimension ref="A1:EA135"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="BB38" activeCellId="0" sqref="BB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.08163265306122"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.21428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.08163265306122"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="0.943877551020408"/>
-    <col collapsed="false" hidden="false" max="110" min="8" style="0" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="111" min="111" style="1" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="114" min="112" style="0" width="1.21428571428571"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="1.08163265306122"/>
-    <col collapsed="false" hidden="false" max="125" min="116" style="0" width="1.21428571428571"/>
+    <col collapsed="false" hidden="false" max="110" min="8" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="111" min="111" style="1" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="125" min="112" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="126" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4168,7 +4170,9 @@
       <c r="AY30" s="16"/>
       <c r="AZ30" s="16"/>
       <c r="BA30" s="16"/>
-      <c r="BB30" s="13"/>
+      <c r="BB30" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="BC30" s="13"/>
       <c r="BD30" s="13"/>
       <c r="BE30" s="13"/>
@@ -5537,7 +5541,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -5773,7 +5777,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
       <c r="N44" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
@@ -6017,7 +6021,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
       <c r="N46" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
@@ -6261,7 +6265,7 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
       <c r="N48" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
@@ -6303,7 +6307,7 @@
       <c r="AZ48" s="17"/>
       <c r="BA48" s="17"/>
       <c r="BB48" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BC48" s="13"/>
       <c r="BD48" s="13"/>
@@ -7461,7 +7465,7 @@
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
       <c r="N58" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
@@ -7694,7 +7698,7 @@
     </row>
     <row r="60" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="13"/>
@@ -12179,7 +12183,7 @@
       <c r="B97" s="27"/>
       <c r="C97" s="22"/>
       <c r="D97" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="13"/>
@@ -13512,7 +13516,7 @@
       <c r="B108" s="27"/>
       <c r="C108" s="22"/>
       <c r="D108" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="13"/>
@@ -15116,7 +15120,7 @@
       <c r="CJ121" s="13"/>
       <c r="CK121" s="13"/>
       <c r="CL121" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CM121" s="32"/>
       <c r="CN121" s="32"/>
@@ -15265,7 +15269,7 @@
     </row>
     <row r="124" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D124" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="13"/>
@@ -15329,38 +15333,38 @@
       <c r="G125" s="13"/>
       <c r="H125" s="2"/>
       <c r="BS125" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BT125" s="13"/>
       <c r="BU125" s="13"/>
       <c r="BV125" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BW125" s="26"/>
       <c r="BX125" s="26"/>
       <c r="BY125" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BZ125" s="13"/>
       <c r="CA125" s="13"/>
       <c r="CB125" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CC125" s="13"/>
       <c r="CD125" s="13"/>
       <c r="CE125" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CF125" s="13"/>
       <c r="CG125" s="13"/>
       <c r="CH125" s="13"/>
       <c r="CI125" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CJ125" s="13"/>
       <c r="CK125" s="13"/>
       <c r="CL125" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CM125" s="7"/>
       <c r="CN125" s="7"/>
@@ -15384,17 +15388,17 @@
       <c r="DF125" s="7"/>
       <c r="DG125" s="7"/>
       <c r="DH125" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DI125" s="33"/>
       <c r="DJ125" s="33"/>
       <c r="DK125" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DL125" s="33"/>
       <c r="DM125" s="33"/>
       <c r="DN125" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="DO125" s="33"/>
       <c r="DP125" s="33"/>
@@ -15504,7 +15508,7 @@
       <c r="DF127" s="7"/>
       <c r="DG127" s="7"/>
       <c r="DH127" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="DI127" s="7"/>
       <c r="DJ127" s="7"/>
@@ -15712,7 +15716,7 @@
       <c r="CJ131" s="13"/>
       <c r="CK131" s="13"/>
       <c r="CL131" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CM131" s="7"/>
       <c r="CN131" s="7"/>
@@ -16605,7 +16609,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="150" min="1" style="0" width="1.21428571428571"/>
+    <col collapsed="false" hidden="false" max="150" min="1" style="0" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="151" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23585,7 +23590,7 @@
     </row>
     <row r="60" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="13"/>
@@ -28066,7 +28071,7 @@
       <c r="B97" s="27"/>
       <c r="C97" s="22"/>
       <c r="D97" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="13"/>
@@ -29399,7 +29404,7 @@
       <c r="B108" s="27"/>
       <c r="C108" s="22"/>
       <c r="D108" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="13"/>
@@ -31322,7 +31327,7 @@
     </row>
     <row r="124" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D124" s="25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E124" s="25"/>
       <c r="F124" s="13"/>
@@ -31625,31 +31630,31 @@
       <c r="H127" s="6"/>
       <c r="BS127" s="22"/>
       <c r="BT127" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU127" s="7"/>
       <c r="BV127" s="7"/>
       <c r="BW127" s="7"/>
       <c r="BX127" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BY127" s="7"/>
       <c r="BZ127" s="7"/>
       <c r="CA127" s="7"/>
       <c r="CB127" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CC127" s="7"/>
       <c r="CD127" s="7"/>
       <c r="CE127" s="7"/>
       <c r="CF127" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CG127" s="7"/>
       <c r="CH127" s="7"/>
       <c r="CI127" s="7"/>
       <c r="CJ127" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CK127" s="7"/>
       <c r="CL127" s="7"/>
@@ -31679,7 +31684,7 @@
       <c r="DJ127" s="7"/>
       <c r="DK127" s="7"/>
       <c r="DL127" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="DM127" s="7"/>
       <c r="DN127" s="7"/>
@@ -32783,6 +32788,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
